--- a/2021-01-16/2021-01-16.xlsx
+++ b/2021-01-16/2021-01-16.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiude/footballgame/2021-01-13/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB99A0C6-26C0-924D-B48C-E8468964E757}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="17540" xr2:uid="{C1DE7E5F-0ED3-4742-A337-4A02AF2E0F75}"/>
+    <workbookView xWindow="1005" yWindow="465" windowWidth="27795" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>1月13号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,13 +135,29 @@
   </si>
   <si>
     <t>柏林赫塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本面：主强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本面：客强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -208,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,8 +237,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -342,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -536,37 +558,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A884A3DC-E102-6341-BC2A-128800A4DC79}">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1"/>
+    <row r="2" spans="1:9" s="6" customFormat="1"/>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="48" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
@@ -596,8 +618,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="25" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3">
@@ -621,9 +643,12 @@
       <c r="H4" s="3">
         <v>22</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3">
         <v>19</v>
       </c>
@@ -645,331 +670,381 @@
       <c r="H5" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1"/>
-    <row r="7" spans="1:9" ht="21" customHeight="1"/>
-    <row r="8" spans="1:9" ht="21" customHeight="1"/>
-    <row r="9" spans="1:9" ht="21" customHeight="1"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="I5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1"/>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1"/>
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="21" customHeight="1"/>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-19</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1"/>
+    <row r="14" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1"/>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="21" customHeight="1"/>
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2">
-        <v>-8</v>
-      </c>
-      <c r="H10" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2">
-        <v>-14</v>
-      </c>
-      <c r="H11" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="21" customHeight="1"/>
-    <row r="13" spans="1:9" ht="21" customHeight="1"/>
-    <row r="14" spans="1:9" ht="21" customHeight="1"/>
-    <row r="15" spans="1:9" ht="21" customHeight="1"/>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D16" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
         <v>5</v>
       </c>
       <c r="G16" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A17" s="7"/>
       <c r="B17" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G17" s="3">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="H17" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21" customHeight="1"/>
-    <row r="19" spans="1:8" ht="21" customHeight="1"/>
-    <row r="20" spans="1:8" ht="21" customHeight="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="10" customFormat="1">
+      <c r="A18" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="10" customFormat="1"/>
+    <row r="20" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1"/>
     <row r="21" spans="1:8" ht="21" customHeight="1"/>
     <row r="22" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-8</v>
+      </c>
+      <c r="H22" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-14</v>
+      </c>
+      <c r="H23" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="10" customFormat="1" ht="21" customHeight="1"/>
+    <row r="26" spans="1:8" s="10" customFormat="1" ht="21" customHeight="1"/>
+    <row r="27" spans="1:8" ht="21" customHeight="1"/>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2">
         <v>6</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D28" s="2">
         <v>6</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E28" s="2">
         <v>7</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G28" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H28" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2">
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D29" s="2">
         <v>9</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E29" s="2">
         <v>4</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F29" s="2">
         <v>2</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G29" s="2">
         <v>14</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H29" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="21" customHeight="1"/>
-    <row r="25" spans="1:8" ht="21" customHeight="1"/>
-    <row r="26" spans="1:8" ht="21" customHeight="1">
-      <c r="A26" s="4" t="s">
+    <row r="30" spans="1:8" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="10" customFormat="1" ht="21" customHeight="1"/>
+    <row r="32" spans="1:8" s="10" customFormat="1" ht="21" customHeight="1"/>
+    <row r="33" spans="1:8" ht="21" customHeight="1"/>
+    <row r="34" spans="1:8" ht="21" customHeight="1">
+      <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B26">
+      <c r="B34">
         <v>17</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D26">
+      <c r="D34">
         <v>2</v>
       </c>
-      <c r="E26">
+      <c r="E34">
         <v>5</v>
       </c>
-      <c r="F26">
+      <c r="F34">
         <v>8</v>
       </c>
-      <c r="G26">
+      <c r="G34">
         <v>-14</v>
       </c>
-      <c r="H26">
+      <c r="H34">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="4"/>
-      <c r="B27">
+    <row r="35" spans="1:8">
+      <c r="A35" s="6"/>
+      <c r="B35">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C35" t="s">
         <v>26</v>
       </c>
-      <c r="D27">
+      <c r="D35">
         <v>4</v>
       </c>
-      <c r="E27">
+      <c r="E35">
         <v>4</v>
       </c>
-      <c r="F27">
+      <c r="F35">
         <v>7</v>
       </c>
-      <c r="G27">
+      <c r="G35">
         <v>-2</v>
       </c>
-      <c r="H27">
+      <c r="H35">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A30" s="5" t="s">
+    <row r="36" spans="1:8" s="10" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1" ht="26.25" customHeight="1"/>
+    <row r="38" spans="1:8" s="10" customFormat="1" ht="26.25" customHeight="1"/>
+    <row r="41" spans="1:8" ht="24" customHeight="1">
+      <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="3">
-        <v>10</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>-3</v>
+      </c>
+      <c r="H41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>-7</v>
+      </c>
+      <c r="H42">
         <v>14</v>
       </c>
-      <c r="D30" s="3">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
-      <c r="F30" s="3">
-        <v>5</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3</v>
-      </c>
-      <c r="H30" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3">
-        <v>16</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="3">
-        <v>4</v>
-      </c>
-      <c r="E31" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3">
-        <v>7</v>
-      </c>
-      <c r="G31" s="3">
-        <v>-11</v>
-      </c>
-      <c r="H31" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="24" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36">
-        <v>7</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>8</v>
-      </c>
-      <c r="G36">
-        <v>-3</v>
-      </c>
-      <c r="H36">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="22" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37">
-        <v>17</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>8</v>
-      </c>
-      <c r="F37">
-        <v>7</v>
-      </c>
-      <c r="G37">
-        <v>-7</v>
-      </c>
-      <c r="H37">
-        <v>14</v>
-      </c>
-    </row>
+    </row>
+    <row r="43" spans="1:8" s="10" customFormat="1">
+      <c r="A43" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="10" customFormat="1"/>
+    <row r="45" spans="1:8" s="10" customFormat="1"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="15">
+    <mergeCell ref="A43:XFD45"/>
     <mergeCell ref="A1:XFD2"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A6:XFD8"/>
+    <mergeCell ref="A24:XFD26"/>
+    <mergeCell ref="A12:XFD14"/>
+    <mergeCell ref="A30:XFD32"/>
+    <mergeCell ref="A36:XFD38"/>
+    <mergeCell ref="A18:XFD20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
